--- a/Results/LanguageRank_stackexchange.xlsx
+++ b/Results/LanguageRank_stackexchange.xlsx
@@ -550,7 +550,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -560,13 +560,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -879,12 +879,13 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
